--- a/solucionfuncional/PTP_Janinson_Hurtado_08072021.xlsx
+++ b/solucionfuncional/PTP_Janinson_Hurtado_08072021.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Janinson\Desktop\aseguramiento-CertificacionCalidadPTP-pa_Janinson_Hurtado\solucionfuncional\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Janinson\IdeaProjects\Sawblabs\solucionfuncional\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Alcance" sheetId="1" r:id="rId1"/>
@@ -160,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="202">
   <si>
     <t>Resumen del sistema a probar</t>
   </si>
@@ -534,19 +534,10 @@
     <t>Que el usuario se encuentre en la pagina web https://www.saucedemo.com</t>
   </si>
   <si>
-    <t>Ingresa un usuario y contraseña</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Da click sobre el icono de carrito de compras </t>
-  </si>
-  <si>
     <t>Como usuario web quiero poder acceder hasta la seccion del carrito de compras</t>
   </si>
   <si>
     <t>Como usuario web quiero retroceder de la descripcion de un producto en especifico</t>
-  </si>
-  <si>
-    <t>Dar click sobre un produccto para luego dar click en el boton de volver en la pagina de productos</t>
   </si>
   <si>
     <t>El usuario debera visualizar el mensaje "THANK YOU FOR YOUR ORDER"</t>
@@ -719,12 +710,6 @@
     <t>Como usuario web quiero poder agregar varios  produtos en una sola compra a mi carrito de compras</t>
   </si>
   <si>
-    <t>Selecciona un producto y este se añade al carrito de compras</t>
-  </si>
-  <si>
-    <t>Selecciona varios productos y estos se añaden al carrito de compras</t>
-  </si>
-  <si>
     <t>ingresa un usuario y contraseña y de click en una chaque</t>
   </si>
   <si>
@@ -772,6 +757,43 @@
   </si>
   <si>
     <t>Generaria crear un nuevo proceso para el plan que ya estaba previamente definido.</t>
+  </si>
+  <si>
+    <t>Actividades Administrativas</t>
+  </si>
+  <si>
+    <t>Reuniones de seguimiento con desarrolladores y líderes de proyecto 
+(Valor de la estimación * Nª analistas * 2)</t>
+  </si>
+  <si>
+    <t>Elaboración de actas e informes</t>
+  </si>
+  <si>
+    <t>13,u0</t>
+  </si>
+  <si>
+    <t>Ingresa un usuario y contraseña.                  Selecciona un producto</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Se añade al carrito de compras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingresa un usuario y contraseña . Da click sobre el icono de carrito de compras </t>
+  </si>
+  <si>
+    <t>Abre el carrito de compras</t>
+  </si>
+  <si>
+    <t>Ingresa un usuario y contraseña. Dar click sobre un produccto para luego dar click en el boton de volver</t>
+  </si>
+  <si>
+    <t>Regresa a la pagina de productos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingresa un usuario y contraseña. Selecciona varios productos </t>
+  </si>
+  <si>
+    <t>Se añaden al carrito de compras</t>
   </si>
 </sst>
 </file>
@@ -781,7 +803,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -886,6 +908,19 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -925,7 +960,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -1142,13 +1177,120 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1206,8 +1348,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1217,8 +1359,80 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1226,84 +1440,15 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1316,8 +1461,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1335,25 +1497,41 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1919,20 +2097,20 @@
       <c r="L3" s="20"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
@@ -2015,20 +2193,20 @@
       <c r="L9" s="17"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
@@ -2255,23 +2433,37 @@
       <c r="L24" s="17"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="21">
+      <c r="A25" s="18">
         <v>44386</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="A12:L12"/>
+    <mergeCell ref="A13:L13"/>
+    <mergeCell ref="A14:L14"/>
+    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="A10:L10"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A5:L5"/>
     <mergeCell ref="A24:L24"/>
     <mergeCell ref="A25:L25"/>
     <mergeCell ref="A15:L15"/>
@@ -2283,20 +2475,6 @@
     <mergeCell ref="A21:L21"/>
     <mergeCell ref="A22:L22"/>
     <mergeCell ref="A23:L23"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A11:L11"/>
-    <mergeCell ref="A12:L12"/>
-    <mergeCell ref="A13:L13"/>
-    <mergeCell ref="A14:L14"/>
-    <mergeCell ref="A6:L6"/>
-    <mergeCell ref="A7:L7"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="A9:L9"/>
-    <mergeCell ref="A10:L10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2393,50 +2571,50 @@
       <c r="L5" s="17"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
+      <c r="A6" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
+      <c r="A7" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2457,7 +2635,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2500,10 +2678,10 @@
         <v>122</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>123</v>
+        <v>194</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -2511,50 +2689,50 @@
         <v>57</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>122</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>123</v>
+        <v>196</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>56</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>122</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>123</v>
+        <v>198</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>127</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>122</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -2562,16 +2740,16 @@
         <v>58</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>122</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>123</v>
+        <v>200</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -2581,348 +2759,408 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:A18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
     </row>
     <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23" t="s">
+      <c r="C3" s="47"/>
+      <c r="D3" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="48">
         <v>9</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="26" t="s">
+      <c r="C4" s="48"/>
+      <c r="D4" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="26" t="s">
+      <c r="A5" s="39"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="34">
-        <v>13</v>
-      </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="26" t="s">
+      <c r="B6" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="C6" s="25"/>
+      <c r="D6" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="26" t="s">
+      <c r="A7" s="31"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="26" t="s">
+      <c r="A8" s="31"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="33"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="26" t="s">
+      <c r="A9" s="23"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="27">
+      <c r="B10" s="40">
         <v>6</v>
       </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="28" t="s">
+      <c r="C10" s="40"/>
+      <c r="D10" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="29" t="s">
+      <c r="A11" s="39"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="30" t="s">
+      <c r="A12" s="39"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="B13" s="24">
+        <v>35</v>
+      </c>
+      <c r="C13" s="25"/>
+      <c r="D13" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="30"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="23"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="30"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="B15" s="24">
+        <v>88</v>
+      </c>
+      <c r="C15" s="25"/>
+      <c r="D15" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="30"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="31"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="B13" s="34">
-        <v>35</v>
-      </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="46" t="s">
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="30"/>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="31"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="48"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="46" t="s">
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="30"/>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="23"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="28" t="s">
         <v>184</v>
       </c>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="48"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
-        <v>185</v>
-      </c>
-      <c r="B15" s="34">
-        <v>88</v>
-      </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="48"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="46" t="s">
-        <v>187</v>
-      </c>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="48"/>
-    </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="46" t="s">
-        <v>188</v>
-      </c>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="48"/>
-    </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="33"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="46" t="s">
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="30"/>
+    </row>
+    <row r="19" spans="1:9" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="64" t="s">
+        <v>190</v>
+      </c>
+      <c r="B19" s="66">
+        <v>20</v>
+      </c>
+      <c r="C19" s="67"/>
+      <c r="D19" s="70" t="s">
+        <v>191</v>
+      </c>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="72"/>
+    </row>
+    <row r="20" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="65"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="73" t="s">
+        <v>192</v>
+      </c>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="75"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="40">
+        <v>18</v>
+      </c>
+      <c r="C21" s="40"/>
+      <c r="D21" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="39"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="39"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+    </row>
+    <row r="24" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="34">
+        <v>9</v>
+      </c>
+      <c r="C24" s="35"/>
+      <c r="D24" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="38"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="34">
         <v>189</v>
       </c>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="48"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="27">
-        <v>18</v>
-      </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="24"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="24"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
-    </row>
-    <row r="22" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="40">
-        <f>SUM(B4)</f>
-        <v>9</v>
-      </c>
-      <c r="C22" s="41"/>
-      <c r="D22" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="44"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" s="40">
-        <v>178</v>
-      </c>
-      <c r="C23" s="41"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="44"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="41">
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:C20"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:C12"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="D12:I12"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:C9"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:C23"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="D22:I22"/>
+    <mergeCell ref="D23:I23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:I24"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="B13:C14"/>
     <mergeCell ref="D13:I13"/>
@@ -2933,35 +3171,9 @@
     <mergeCell ref="D16:I16"/>
     <mergeCell ref="D17:I17"/>
     <mergeCell ref="D18:I18"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:I23"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:C21"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="D20:I20"/>
-    <mergeCell ref="D21:I21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:I22"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:C9"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:C12"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="D12:I12"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="D5:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2969,7 +3181,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L201"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -3034,19 +3246,19 @@
       <c r="A4" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="18">
         <v>44385</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -3142,35 +3354,35 @@
       <c r="A10" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -3293,7 +3505,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="49" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B43" s="49"/>
       <c r="C43" s="49"/>
@@ -3311,19 +3523,19 @@
       <c r="A44" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="18"/>
-      <c r="I44" s="18"/>
-      <c r="J44" s="18"/>
-      <c r="K44" s="18"/>
-      <c r="L44" s="18"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="21"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -3347,19 +3559,19 @@
       <c r="A46" t="s">
         <v>64</v>
       </c>
-      <c r="B46" s="21">
+      <c r="B46" s="18">
         <v>44385</v>
       </c>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="21"/>
-      <c r="I46" s="21"/>
-      <c r="J46" s="21"/>
-      <c r="K46" s="21"/>
-      <c r="L46" s="21"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="18"/>
+      <c r="K46" s="18"/>
+      <c r="L46" s="18"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
@@ -3625,7 +3837,7 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="49" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B84" s="49"/>
       <c r="C84" s="49"/>
@@ -3643,19 +3855,19 @@
       <c r="A85" t="s">
         <v>54</v>
       </c>
-      <c r="B85" s="18" t="s">
+      <c r="B85" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="C85" s="18"/>
-      <c r="D85" s="18"/>
-      <c r="E85" s="18"/>
-      <c r="F85" s="18"/>
-      <c r="G85" s="18"/>
-      <c r="H85" s="18"/>
-      <c r="I85" s="18"/>
-      <c r="J85" s="18"/>
-      <c r="K85" s="18"/>
-      <c r="L85" s="18"/>
+      <c r="C85" s="21"/>
+      <c r="D85" s="21"/>
+      <c r="E85" s="21"/>
+      <c r="F85" s="21"/>
+      <c r="G85" s="21"/>
+      <c r="H85" s="21"/>
+      <c r="I85" s="21"/>
+      <c r="J85" s="21"/>
+      <c r="K85" s="21"/>
+      <c r="L85" s="21"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
@@ -3679,19 +3891,19 @@
       <c r="A87" t="s">
         <v>64</v>
       </c>
-      <c r="B87" s="21">
+      <c r="B87" s="18">
         <v>44385</v>
       </c>
-      <c r="C87" s="21"/>
-      <c r="D87" s="21"/>
-      <c r="E87" s="21"/>
-      <c r="F87" s="21"/>
-      <c r="G87" s="21"/>
-      <c r="H87" s="21"/>
-      <c r="I87" s="21"/>
-      <c r="J87" s="21"/>
-      <c r="K87" s="21"/>
-      <c r="L87" s="21"/>
+      <c r="C87" s="18"/>
+      <c r="D87" s="18"/>
+      <c r="E87" s="18"/>
+      <c r="F87" s="18"/>
+      <c r="G87" s="18"/>
+      <c r="H87" s="18"/>
+      <c r="I87" s="18"/>
+      <c r="J87" s="18"/>
+      <c r="K87" s="18"/>
+      <c r="L87" s="18"/>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
@@ -3802,7 +4014,7 @@
       <c r="L93" s="17"/>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="54"/>
+      <c r="A94" s="50"/>
       <c r="B94" s="17" t="s">
         <v>77</v>
       </c>
@@ -3818,25 +4030,25 @@
       <c r="L94" s="17"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="50" t="s">
+      <c r="A95" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="B95" s="52" t="s">
+      <c r="B95" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="C95" s="53"/>
-      <c r="D95" s="53"/>
-      <c r="E95" s="53"/>
-      <c r="F95" s="53"/>
-      <c r="G95" s="53"/>
-      <c r="H95" s="53"/>
-      <c r="I95" s="53"/>
-      <c r="J95" s="53"/>
-      <c r="K95" s="53"/>
-      <c r="L95" s="53"/>
+      <c r="C95" s="54"/>
+      <c r="D95" s="54"/>
+      <c r="E95" s="54"/>
+      <c r="F95" s="54"/>
+      <c r="G95" s="54"/>
+      <c r="H95" s="54"/>
+      <c r="I95" s="54"/>
+      <c r="J95" s="54"/>
+      <c r="K95" s="54"/>
+      <c r="L95" s="54"/>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" s="51"/>
+      <c r="A96" s="52"/>
       <c r="B96" s="17" t="s">
         <v>79</v>
       </c>
@@ -3852,7 +4064,7 @@
       <c r="L96" s="17"/>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A97" s="51"/>
+      <c r="A97" s="52"/>
       <c r="B97" s="17" t="s">
         <v>80</v>
       </c>
@@ -3868,7 +4080,7 @@
       <c r="L97" s="17"/>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A98" s="51"/>
+      <c r="A98" s="52"/>
       <c r="B98" s="17" t="s">
         <v>98</v>
       </c>
@@ -3884,7 +4096,7 @@
       <c r="L98" s="17"/>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A99" s="51"/>
+      <c r="A99" s="52"/>
       <c r="B99" s="17" t="s">
         <v>105</v>
       </c>
@@ -3900,7 +4112,7 @@
       <c r="L99" s="17"/>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A100" s="51"/>
+      <c r="A100" s="52"/>
       <c r="B100" s="17" t="s">
         <v>106</v>
       </c>
@@ -3916,7 +4128,7 @@
       <c r="L100" s="17"/>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" s="51"/>
+      <c r="A101" s="52"/>
       <c r="B101" s="17" t="s">
         <v>107</v>
       </c>
@@ -3932,7 +4144,7 @@
       <c r="L101" s="17"/>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A102" s="51"/>
+      <c r="A102" s="52"/>
       <c r="B102" s="17" t="s">
         <v>108</v>
       </c>
@@ -3948,7 +4160,7 @@
       <c r="L102" s="17"/>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A103" s="51"/>
+      <c r="A103" s="52"/>
       <c r="B103" s="17" t="s">
         <v>109</v>
       </c>
@@ -3964,7 +4176,7 @@
       <c r="L103" s="17"/>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A104" s="51"/>
+      <c r="A104" s="52"/>
       <c r="B104" s="17" t="s">
         <v>110</v>
       </c>
@@ -4022,7 +4234,7 @@
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="49" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B133" s="49"/>
       <c r="C133" s="49"/>
@@ -4040,19 +4252,19 @@
       <c r="A134" t="s">
         <v>54</v>
       </c>
-      <c r="B134" s="18" t="s">
+      <c r="B134" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="C134" s="18"/>
-      <c r="D134" s="18"/>
-      <c r="E134" s="18"/>
-      <c r="F134" s="18"/>
-      <c r="G134" s="18"/>
-      <c r="H134" s="18"/>
-      <c r="I134" s="18"/>
-      <c r="J134" s="18"/>
-      <c r="K134" s="18"/>
-      <c r="L134" s="18"/>
+      <c r="C134" s="21"/>
+      <c r="D134" s="21"/>
+      <c r="E134" s="21"/>
+      <c r="F134" s="21"/>
+      <c r="G134" s="21"/>
+      <c r="H134" s="21"/>
+      <c r="I134" s="21"/>
+      <c r="J134" s="21"/>
+      <c r="K134" s="21"/>
+      <c r="L134" s="21"/>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
@@ -4076,19 +4288,19 @@
       <c r="A136" t="s">
         <v>64</v>
       </c>
-      <c r="B136" s="21">
+      <c r="B136" s="18">
         <v>44385</v>
       </c>
-      <c r="C136" s="21"/>
-      <c r="D136" s="21"/>
-      <c r="E136" s="21"/>
-      <c r="F136" s="21"/>
-      <c r="G136" s="21"/>
-      <c r="H136" s="21"/>
-      <c r="I136" s="21"/>
-      <c r="J136" s="21"/>
-      <c r="K136" s="21"/>
-      <c r="L136" s="21"/>
+      <c r="C136" s="18"/>
+      <c r="D136" s="18"/>
+      <c r="E136" s="18"/>
+      <c r="F136" s="18"/>
+      <c r="G136" s="18"/>
+      <c r="H136" s="18"/>
+      <c r="I136" s="18"/>
+      <c r="J136" s="18"/>
+      <c r="K136" s="18"/>
+      <c r="L136" s="18"/>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
@@ -4335,7 +4547,7 @@
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" s="49" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B183" s="49"/>
       <c r="C183" s="49"/>
@@ -4353,19 +4565,19 @@
       <c r="A184" t="s">
         <v>54</v>
       </c>
-      <c r="B184" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="C184" s="18"/>
-      <c r="D184" s="18"/>
-      <c r="E184" s="18"/>
-      <c r="F184" s="18"/>
-      <c r="G184" s="18"/>
-      <c r="H184" s="18"/>
-      <c r="I184" s="18"/>
-      <c r="J184" s="18"/>
-      <c r="K184" s="18"/>
-      <c r="L184" s="18"/>
+      <c r="B184" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C184" s="21"/>
+      <c r="D184" s="21"/>
+      <c r="E184" s="21"/>
+      <c r="F184" s="21"/>
+      <c r="G184" s="21"/>
+      <c r="H184" s="21"/>
+      <c r="I184" s="21"/>
+      <c r="J184" s="21"/>
+      <c r="K184" s="21"/>
+      <c r="L184" s="21"/>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
@@ -4389,26 +4601,26 @@
       <c r="A186" t="s">
         <v>64</v>
       </c>
-      <c r="B186" s="21">
+      <c r="B186" s="18">
         <v>44385</v>
       </c>
-      <c r="C186" s="21"/>
-      <c r="D186" s="21"/>
-      <c r="E186" s="21"/>
-      <c r="F186" s="21"/>
-      <c r="G186" s="21"/>
-      <c r="H186" s="21"/>
-      <c r="I186" s="21"/>
-      <c r="J186" s="21"/>
-      <c r="K186" s="21"/>
-      <c r="L186" s="21"/>
+      <c r="C186" s="18"/>
+      <c r="D186" s="18"/>
+      <c r="E186" s="18"/>
+      <c r="F186" s="18"/>
+      <c r="G186" s="18"/>
+      <c r="H186" s="18"/>
+      <c r="I186" s="18"/>
+      <c r="J186" s="18"/>
+      <c r="K186" s="18"/>
+      <c r="L186" s="18"/>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>65</v>
       </c>
       <c r="B187" s="17" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C187" s="17"/>
       <c r="D187" s="17"/>
@@ -4610,7 +4822,7 @@
         <v>83</v>
       </c>
       <c r="B199" s="17" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C199" s="17"/>
       <c r="D199" s="17"/>
@@ -4628,7 +4840,7 @@
         <v>102</v>
       </c>
       <c r="B200" s="17" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C200" s="17"/>
       <c r="D200" s="17"/>
@@ -4648,16 +4860,73 @@
     </row>
   </sheetData>
   <mergeCells count="101">
-    <mergeCell ref="B196:L196"/>
-    <mergeCell ref="B197:L197"/>
-    <mergeCell ref="B198:L198"/>
-    <mergeCell ref="B199:L199"/>
-    <mergeCell ref="B200:L200"/>
-    <mergeCell ref="A192:A193"/>
-    <mergeCell ref="B192:L192"/>
-    <mergeCell ref="B193:L193"/>
-    <mergeCell ref="B194:L194"/>
-    <mergeCell ref="B195:L195"/>
+    <mergeCell ref="B138:L138"/>
+    <mergeCell ref="B139:L139"/>
+    <mergeCell ref="B140:L140"/>
+    <mergeCell ref="B147:L147"/>
+    <mergeCell ref="B148:L148"/>
+    <mergeCell ref="B149:L149"/>
+    <mergeCell ref="B150:L150"/>
+    <mergeCell ref="A142:A143"/>
+    <mergeCell ref="B142:L142"/>
+    <mergeCell ref="B143:L143"/>
+    <mergeCell ref="B144:L144"/>
+    <mergeCell ref="B145:L145"/>
+    <mergeCell ref="B146:L146"/>
+    <mergeCell ref="B103:L103"/>
+    <mergeCell ref="B88:L88"/>
+    <mergeCell ref="B89:L89"/>
+    <mergeCell ref="B90:L90"/>
+    <mergeCell ref="B91:L91"/>
+    <mergeCell ref="B92:L92"/>
+    <mergeCell ref="B141:L141"/>
+    <mergeCell ref="B104:L104"/>
+    <mergeCell ref="B105:L105"/>
+    <mergeCell ref="B106:L106"/>
+    <mergeCell ref="A133:L133"/>
+    <mergeCell ref="B134:L134"/>
+    <mergeCell ref="B135:L135"/>
+    <mergeCell ref="A95:A104"/>
+    <mergeCell ref="B95:L95"/>
+    <mergeCell ref="B96:L96"/>
+    <mergeCell ref="B97:L97"/>
+    <mergeCell ref="B98:L98"/>
+    <mergeCell ref="B99:L99"/>
+    <mergeCell ref="B100:L100"/>
+    <mergeCell ref="B101:L101"/>
+    <mergeCell ref="B102:L102"/>
+    <mergeCell ref="B136:L136"/>
+    <mergeCell ref="B137:L137"/>
+    <mergeCell ref="B55:L55"/>
+    <mergeCell ref="B56:L56"/>
+    <mergeCell ref="B57:L57"/>
+    <mergeCell ref="B58:L58"/>
+    <mergeCell ref="B59:L59"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:L93"/>
+    <mergeCell ref="B94:L94"/>
+    <mergeCell ref="B60:L60"/>
+    <mergeCell ref="B61:L61"/>
+    <mergeCell ref="A84:L84"/>
+    <mergeCell ref="B85:L85"/>
+    <mergeCell ref="B86:L86"/>
+    <mergeCell ref="B87:L87"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="B3:L3"/>
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="B5:L5"/>
+    <mergeCell ref="B17:L17"/>
+    <mergeCell ref="B7:L7"/>
+    <mergeCell ref="B8:L8"/>
+    <mergeCell ref="B9:L9"/>
+    <mergeCell ref="B10:L10"/>
+    <mergeCell ref="B11:L11"/>
+    <mergeCell ref="B12:L12"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="B14:L14"/>
+    <mergeCell ref="B15:L15"/>
+    <mergeCell ref="B16:L16"/>
     <mergeCell ref="B187:L187"/>
     <mergeCell ref="B188:L188"/>
     <mergeCell ref="B189:L189"/>
@@ -4682,73 +4951,16 @@
     <mergeCell ref="B52:L52"/>
     <mergeCell ref="A54:A59"/>
     <mergeCell ref="B54:L54"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="B3:L3"/>
-    <mergeCell ref="B4:L4"/>
-    <mergeCell ref="B5:L5"/>
-    <mergeCell ref="B17:L17"/>
-    <mergeCell ref="B7:L7"/>
-    <mergeCell ref="B8:L8"/>
-    <mergeCell ref="B9:L9"/>
-    <mergeCell ref="B10:L10"/>
-    <mergeCell ref="B11:L11"/>
-    <mergeCell ref="B12:L12"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="B14:L14"/>
-    <mergeCell ref="B15:L15"/>
-    <mergeCell ref="B16:L16"/>
-    <mergeCell ref="B55:L55"/>
-    <mergeCell ref="B56:L56"/>
-    <mergeCell ref="B57:L57"/>
-    <mergeCell ref="B58:L58"/>
-    <mergeCell ref="B59:L59"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:L93"/>
-    <mergeCell ref="B94:L94"/>
-    <mergeCell ref="B60:L60"/>
-    <mergeCell ref="B61:L61"/>
-    <mergeCell ref="A84:L84"/>
-    <mergeCell ref="B85:L85"/>
-    <mergeCell ref="B86:L86"/>
-    <mergeCell ref="B87:L87"/>
-    <mergeCell ref="B103:L103"/>
-    <mergeCell ref="B88:L88"/>
-    <mergeCell ref="B89:L89"/>
-    <mergeCell ref="B90:L90"/>
-    <mergeCell ref="B91:L91"/>
-    <mergeCell ref="B92:L92"/>
-    <mergeCell ref="B141:L141"/>
-    <mergeCell ref="B104:L104"/>
-    <mergeCell ref="B105:L105"/>
-    <mergeCell ref="B106:L106"/>
-    <mergeCell ref="A133:L133"/>
-    <mergeCell ref="B134:L134"/>
-    <mergeCell ref="B135:L135"/>
-    <mergeCell ref="A95:A104"/>
-    <mergeCell ref="B95:L95"/>
-    <mergeCell ref="B96:L96"/>
-    <mergeCell ref="B97:L97"/>
-    <mergeCell ref="B98:L98"/>
-    <mergeCell ref="B99:L99"/>
-    <mergeCell ref="B100:L100"/>
-    <mergeCell ref="B101:L101"/>
-    <mergeCell ref="B102:L102"/>
-    <mergeCell ref="B136:L136"/>
-    <mergeCell ref="B137:L137"/>
-    <mergeCell ref="B138:L138"/>
-    <mergeCell ref="B139:L139"/>
-    <mergeCell ref="B140:L140"/>
-    <mergeCell ref="B147:L147"/>
-    <mergeCell ref="B148:L148"/>
-    <mergeCell ref="B149:L149"/>
-    <mergeCell ref="B150:L150"/>
-    <mergeCell ref="A142:A143"/>
-    <mergeCell ref="B142:L142"/>
-    <mergeCell ref="B143:L143"/>
-    <mergeCell ref="B144:L144"/>
-    <mergeCell ref="B145:L145"/>
-    <mergeCell ref="B146:L146"/>
+    <mergeCell ref="B196:L196"/>
+    <mergeCell ref="B197:L197"/>
+    <mergeCell ref="B198:L198"/>
+    <mergeCell ref="B199:L199"/>
+    <mergeCell ref="B200:L200"/>
+    <mergeCell ref="A192:A193"/>
+    <mergeCell ref="B192:L192"/>
+    <mergeCell ref="B193:L193"/>
+    <mergeCell ref="B194:L194"/>
+    <mergeCell ref="B195:L195"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4759,144 +4971,144 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
-        <v>129</v>
-      </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="57"/>
+      <c r="A1" s="60" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="62"/>
     </row>
     <row r="2" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="63" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2" s="63"/>
+      <c r="G2" s="9" t="s">
         <v>130</v>
-      </c>
-      <c r="B2" s="58" t="s">
-        <v>131</v>
-      </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58" t="s">
-        <v>132</v>
-      </c>
-      <c r="F2" s="58"/>
-      <c r="G2" s="9" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="B3" s="59" t="s">
-        <v>153</v>
-      </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="59" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" s="58" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="58" t="s">
+        <v>141</v>
+      </c>
+      <c r="F3" s="58"/>
+      <c r="G3" s="13" t="s">
         <v>144</v>
-      </c>
-      <c r="F3" s="59"/>
-      <c r="G3" s="13" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="B4" s="59" t="s">
-        <v>154</v>
-      </c>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="59" t="s">
-        <v>148</v>
-      </c>
-      <c r="F4" s="59"/>
+        <v>143</v>
+      </c>
+      <c r="B4" s="58" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="F4" s="58"/>
       <c r="G4" s="13" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="84" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="B5" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="59" t="s">
-        <v>152</v>
-      </c>
-      <c r="F5" s="60"/>
+        <v>188</v>
+      </c>
+      <c r="B5" s="58" t="s">
+        <v>189</v>
+      </c>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="F5" s="59"/>
       <c r="G5" s="13" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="B6" s="60" t="s">
-        <v>155</v>
-      </c>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="59" t="s">
-        <v>150</v>
-      </c>
-      <c r="F6" s="59"/>
+        <v>146</v>
+      </c>
+      <c r="B6" s="59" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="58" t="s">
+        <v>147</v>
+      </c>
+      <c r="F6" s="58"/>
       <c r="G6" s="13" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="55" t="s">
-        <v>156</v>
-      </c>
-      <c r="B9" s="56"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="57"/>
+      <c r="A9" s="60" t="s">
+        <v>153</v>
+      </c>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="62"/>
     </row>
     <row r="10" spans="1:7" ht="48" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="F10" s="63" t="s">
         <v>158</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="F10" s="58" t="s">
-        <v>161</v>
-      </c>
-      <c r="G10" s="58"/>
+      <c r="G10" s="63"/>
     </row>
     <row r="11" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B11" s="15">
         <v>0.2</v>
@@ -4911,14 +5123,14 @@
         <f t="shared" ref="E11:E13" si="0">IF(B11*C11*D11 = 0,"",B11*C11*D11)</f>
         <v>0.2</v>
       </c>
-      <c r="F11" s="63" t="s">
-        <v>162</v>
-      </c>
-      <c r="G11" s="63"/>
+      <c r="F11" s="57" t="s">
+        <v>159</v>
+      </c>
+      <c r="G11" s="57"/>
     </row>
     <row r="12" spans="1:7" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B12" s="15">
         <v>0.45</v>
@@ -4933,14 +5145,14 @@
         <f t="shared" si="0"/>
         <v>0.45</v>
       </c>
-      <c r="F12" s="63" t="s">
-        <v>191</v>
-      </c>
-      <c r="G12" s="63"/>
+      <c r="F12" s="57" t="s">
+        <v>186</v>
+      </c>
+      <c r="G12" s="57"/>
     </row>
     <row r="13" spans="1:7" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B13" s="15">
         <v>0.7</v>
@@ -4955,27 +5167,32 @@
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="F13" s="63" t="s">
-        <v>164</v>
-      </c>
-      <c r="G13" s="63"/>
+      <c r="F13" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="G13" s="57"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="61" t="s">
-        <v>165</v>
-      </c>
-      <c r="B14" s="61"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
+      <c r="A14" s="55" t="s">
+        <v>162</v>
+      </c>
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
       <c r="E14" s="14">
         <f>AVERAGE(E11:E13)</f>
         <v>0.45</v>
       </c>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:F3"/>
     <mergeCell ref="A14:D14"/>
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="F12:G12"/>
@@ -4989,11 +5206,6 @@
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="E5:F5"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5017,41 +5229,41 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" t="s">
         <v>166</v>
-      </c>
-      <c r="B1" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B4" t="s">
         <v>168</v>
-      </c>
-      <c r="B4" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
